--- a/NotasEscolares.xlsx
+++ b/NotasEscolares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL USER\Desktop\AnálisisDatosMultivariable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F497D7-9FC7-49EF-8A75-1CDDDACB9B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE7BB30-997C-47DF-8A1E-FD41BEE7583E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{083E78FF-52B1-4067-8F93-CF91C1ED7DB9}"/>
   </bookViews>
@@ -91,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,6 +186,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49021434-8E49-4278-8210-7FE0582C49DB}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,19 +543,19 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="10">
         <v>6.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>8.6</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="10">
         <v>8</v>
       </c>
     </row>
@@ -554,19 +563,19 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>7.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>9.4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>7.3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="10">
         <v>7</v>
       </c>
     </row>
@@ -574,19 +583,19 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>7.6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="10">
         <v>7.5</v>
       </c>
     </row>
@@ -594,19 +603,19 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>6.5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="E5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <v>9</v>
       </c>
     </row>
@@ -614,19 +623,19 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="10">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="10">
         <v>8.9</v>
       </c>
-      <c r="E6" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="10">
         <v>7.3</v>
       </c>
     </row>
@@ -634,19 +643,19 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="10">
         <v>7.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <v>9.6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="E7" s="10">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="10">
         <v>6.5</v>
       </c>
     </row>
@@ -654,19 +663,19 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="10">
         <v>6.3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <v>6.4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E8" s="10">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F8" s="10">
         <v>7.2</v>
       </c>
     </row>
@@ -674,19 +683,19 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>7.9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
         <v>6</v>
       </c>
     </row>
@@ -694,19 +703,19 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="10">
         <v>5.5</v>
       </c>
-      <c r="E10" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -714,19 +723,19 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="11">
         <v>6.8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>7.2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="F11" s="11">
         <v>7</v>
       </c>
     </row>
@@ -744,7 +753,7 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>7.99</v>
+        <v>7.74</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
@@ -769,7 +778,7 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="1"/>
-        <v>1.1541711792932199</v>
+        <v>0.86049081601398736</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
@@ -815,7 +824,7 @@
       </c>
       <c r="D18" s="8">
         <f>STANDARDIZE(D2,$D$13,$D$14)</f>
-        <v>1.0483713522815281</v>
+        <v>1.6967060807959473</v>
       </c>
       <c r="E18" s="8">
         <f>STANDARDIZE(E2,$E$13,$E$14)</f>
@@ -840,7 +849,7 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" ref="D19:D27" si="4">STANDARDIZE(D3,$D$13,$D$14)</f>
-        <v>-0.59783159758202931</v>
+        <v>-0.51133607914398493</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ref="E19:E27" si="5">STANDARDIZE(E3,$E$13,$E$14)</f>
@@ -865,7 +874,7 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="4"/>
-        <v>8.6642260519132781E-3</v>
+        <v>0.30215313767599056</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="5"/>
@@ -890,7 +899,7 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="4"/>
-        <v>-0.85775837913943298</v>
+        <v>-1.4410380412239565</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="5"/>
@@ -915,7 +924,7 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="4"/>
-        <v>0.78844457072412522</v>
+        <v>6.9727647155997427E-2</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="5"/>
@@ -940,7 +949,7 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" si="4"/>
-        <v>8.6642260519132781E-3</v>
+        <v>-4.6485098103998625E-2</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="5"/>
@@ -965,7 +974,7 @@
       </c>
       <c r="D24" s="8">
         <f t="shared" si="4"/>
-        <v>0.87508683124325959</v>
+        <v>0.53457862819598267</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="5"/>
@@ -990,7 +999,7 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="4"/>
-        <v>8.6642260519132781E-3</v>
+        <v>-0.27891058862399176</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="5"/>
@@ -1015,7 +1024,7 @@
       </c>
       <c r="D26" s="8">
         <f t="shared" si="4"/>
-        <v>-2.1573922869264526</v>
+        <v>-1.4410380412239565</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="5"/>
@@ -1040,7 +1049,7 @@
       </c>
       <c r="D27" s="9">
         <f t="shared" si="4"/>
-        <v>0.87508683124325959</v>
+        <v>1.115642354495965</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="5"/>
@@ -1053,5 +1062,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>